--- a/thresholds/IGCSE/international-mathematics/international-mathematics-thresholds.xlsx
+++ b/thresholds/IGCSE/international-mathematics/international-mathematics-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,48 +733,48 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31,51</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F8" t="n">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32,52</t>
+          <t>AX 11,31,51</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -790,20 +790,20 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G9" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H9" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" t="n">
         <v>54</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -815,7 +815,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33,53</t>
+          <t>AY 12,32,52</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -856,35 +856,37 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,61</t>
+          <t>AZ 13,33,53</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C11" t="n">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="G11" t="n">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="H11" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -895,29 +897,29 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,62</t>
+          <t>BX 21,41,61</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>300</v>
       </c>
       <c r="C12" t="n">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D12" t="n">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="E12" t="n">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F12" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G12" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H12" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -934,29 +936,29 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,63</t>
+          <t>BY 22,42,62</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>300</v>
       </c>
       <c r="C13" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D13" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E13" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F13" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G13" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -973,48 +975,46 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31,51</t>
+          <t>BZ 23,43,63</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="F14" t="n">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="G14" t="n">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H14" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32,52</t>
+          <t>AX 11,31,51</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1030,20 +1030,20 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G15" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H15" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I15" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1055,7 +1055,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33,53</t>
+          <t>AY 12,32,52</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1096,35 +1096,37 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,61</t>
+          <t>AZ 13,33,53</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C17" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="G17" t="n">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="H17" t="n">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1135,29 +1137,29 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,62</t>
+          <t>BX 21,41,61</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>300</v>
       </c>
       <c r="C18" t="n">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D18" t="n">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E18" t="n">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F18" t="n">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G18" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="H18" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1174,29 +1176,29 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,63</t>
+          <t>BY 22,42,62</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>300</v>
       </c>
       <c r="C19" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D19" t="n">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="E19" t="n">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="F19" t="n">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G19" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="H19" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1213,29 +1215,29 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,62</t>
+          <t>BZ 23,43,63</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C20" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D20" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E20" t="n">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F20" t="n">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G20" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H20" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1245,18 +1247,18 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>March 2022</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31,51</t>
+          <t>AY 12,32,52</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1268,73 +1270,71 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G21" t="n">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="H21" t="n">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="I21" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32,52</t>
+          <t>BY 22,42,62</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F22" t="n">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="G22" t="n">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="H22" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33,53</t>
+          <t>AX 11,31,51</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G23" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H23" t="n">
         <v>116</v>
@@ -1375,35 +1375,37 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,61</t>
+          <t>AY 12,32,52</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C24" t="n">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="G24" t="n">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="H24" t="n">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1414,35 +1416,37 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,62</t>
+          <t>AZ 13,33,53</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C25" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="G25" t="n">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1453,29 +1457,29 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,63</t>
+          <t>BX 21,41,61</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>300</v>
       </c>
       <c r="C26" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D26" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E26" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F26" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G26" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H26" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1492,158 +1496,156 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31,51</t>
+          <t>BY 22,42,62</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="F27" t="n">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="G27" t="n">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="H27" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="I27" t="n">
-        <v>83</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32,52</t>
+          <t>BZ 23,43,63</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="F28" t="n">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="G28" t="n">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="H28" t="n">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="I28" t="n">
-        <v>85</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33,53</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F29" t="n">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="G29" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="H29" t="n">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I29" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,61</t>
+          <t>AX 11,31,51</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C30" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>164</v>
       </c>
-      <c r="F30" t="n">
-        <v>113</v>
-      </c>
       <c r="G30" t="n">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="H30" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1654,35 +1656,37 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,62</t>
+          <t>AY 12,32,52</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C31" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="G31" t="n">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="H31" t="n">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1693,35 +1697,37 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,63</t>
+          <t>AZ 13,33,53</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C32" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="G32" t="n">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="H32" t="n">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1732,197 +1738,195 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AX 11,31,51</t>
+          <t>BX 21,41,61</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F33" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="G33" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="H33" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I33" t="n">
-        <v>65</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32,52</t>
+          <t>BY 22,42,62</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="F34" t="n">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="G34" t="n">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="H34" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I34" t="n">
-        <v>64</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,33,53</t>
+          <t>BZ 23,43,63</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F35" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G35" t="n">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="H35" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I35" t="n">
-        <v>65</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,61</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="C36" t="n">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="D36" t="n">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="E36" t="n">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="F36" t="n">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="G36" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,62</t>
+          <t>AX 11,31,51</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C37" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="G37" t="n">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="H37" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1933,35 +1937,37 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,63</t>
+          <t>AY 12,32,52</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C38" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="G38" t="n">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H38" t="n">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1972,11 +1978,11 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32,52</t>
+          <t>AZ 13,33,53</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1988,54 +1994,54 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G39" t="n">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H39" t="n">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I39" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,62</t>
+          <t>BX 21,41,61</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C40" t="n">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D40" t="n">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E40" t="n">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="F40" t="n">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="G40" t="n">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="H40" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2045,77 +2051,75 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32,52</t>
+          <t>BY 22,42,62</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="F41" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="H41" t="n">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="I41" t="n">
-        <v>84</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,62</t>
+          <t>BZ 23,43,63</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C42" t="n">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="D42" t="n">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="E42" t="n">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="F42" t="n">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="G42" t="n">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="H42" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2125,85 +2129,286 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>AY 12,32,52</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F43" t="n">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="G43" t="n">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="H43" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="I43" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
+          <t>AY 12,32,52</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>240</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>153</v>
+      </c>
+      <c r="G44" t="n">
+        <v>127</v>
+      </c>
+      <c r="H44" t="n">
+        <v>101</v>
+      </c>
+      <c r="I44" t="n">
+        <v>75</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>March 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
           <t>BY 22,42,62</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
+        <v>300</v>
+      </c>
+      <c r="C45" t="n">
+        <v>229</v>
+      </c>
+      <c r="D45" t="n">
+        <v>199</v>
+      </c>
+      <c r="E45" t="n">
+        <v>169</v>
+      </c>
+      <c r="F45" t="n">
+        <v>140</v>
+      </c>
+      <c r="G45" t="n">
+        <v>111</v>
+      </c>
+      <c r="H45" t="n">
+        <v>83</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>March 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,32,52</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>240</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>171</v>
+      </c>
+      <c r="G46" t="n">
+        <v>142</v>
+      </c>
+      <c r="H46" t="n">
+        <v>113</v>
+      </c>
+      <c r="I46" t="n">
+        <v>84</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>March 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42,62</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>300</v>
+      </c>
+      <c r="C47" t="n">
+        <v>249</v>
+      </c>
+      <c r="D47" t="n">
+        <v>215</v>
+      </c>
+      <c r="E47" t="n">
+        <v>181</v>
+      </c>
+      <c r="F47" t="n">
+        <v>148</v>
+      </c>
+      <c r="G47" t="n">
+        <v>112</v>
+      </c>
+      <c r="H47" t="n">
+        <v>77</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>March 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,32,52</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>200</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>142</v>
+      </c>
+      <c r="G48" t="n">
+        <v>118</v>
+      </c>
+      <c r="H48" t="n">
+        <v>94</v>
+      </c>
+      <c r="I48" t="n">
+        <v>70</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42,62</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
         <v>250</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C49" t="n">
         <v>219</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D49" t="n">
         <v>189</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E49" t="n">
         <v>159</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F49" t="n">
         <v>130</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G49" t="n">
         <v>101</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H49" t="n">
         <v>73</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>March 2025</t>
         </is>
